--- a/A-开发相关文档素材/5.其他文档/日历标签的分析.xlsx
+++ b/A-开发相关文档素材/5.其他文档/日历标签的分析.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scarecrow\Documents\WeChat Files\WYscarecrow\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IdeaProjects\GTD2\A-开发相关文档素材\5.其他文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="40">
   <si>
     <t>计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>行动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>会议</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,6 +179,10 @@
   </si>
   <si>
     <t>自定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -826,7 +826,7 @@
   <dimension ref="B2:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21:J23"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -878,7 +878,7 @@
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -977,7 +977,9 @@
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -988,60 +990,60 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="K8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="2"/>
+      <c r="M8" s="1"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9" s="1"/>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B10" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5" t="s">
@@ -1065,7 +1067,7 @@
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5" t="s">
@@ -1087,81 +1089,83 @@
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2" t="s">
@@ -1171,11 +1175,9 @@
       <c r="G15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1194,12 +1196,12 @@
         <v>13</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="1"/>
       <c r="K16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1218,15 +1220,15 @@
         <v>13</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="1"/>
       <c r="L17" s="2" t="s">
         <v>13</v>
       </c>
@@ -1235,7 +1237,7 @@
     <row r="18" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="2" t="s">
@@ -1247,10 +1249,10 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="L18" s="2" t="s">
         <v>13</v>
       </c>
@@ -1259,7 +1261,7 @@
     <row r="19" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="2" t="s">
@@ -1283,13 +1285,13 @@
     <row r="20" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
         <v>13</v>
       </c>
@@ -1309,7 +1311,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="2" t="s">
@@ -1333,7 +1335,7 @@
     <row r="22" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="2" t="s">
@@ -1357,7 +1359,7 @@
     <row r="23" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="2" t="s">
@@ -1380,7 +1382,7 @@
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>

--- a/A-开发相关文档素材/5.其他文档/日历标签的分析.xlsx
+++ b/A-开发相关文档素材/5.其他文档/日历标签的分析.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IdeaProjects\GTD2\A-开发相关文档素材\5.其他文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\GTD2\A-开发相关文档素材\5.其他文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="48">
   <si>
     <t>计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日常（无截止日清单）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,50 +111,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>具体到时刻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>随手记</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件</t>
+  </si>
+  <si>
+    <t>任务、待办（有截止日清单）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传统节日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外国节日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖时间（开始时间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体到天（无时间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有截止日（截至时刻）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>日程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>循环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旅行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件</t>
-  </si>
-  <si>
-    <t>任务、待办（有截止日清单）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作</t>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -166,19 +210,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>传统节日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外国节日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义</t>
+    <t>特殊日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -214,7 +246,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,8 +265,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -281,13 +331,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -311,6 +374,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -823,596 +919,383 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M35"/>
+  <dimension ref="B2:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" customWidth="1"/>
-    <col min="12" max="12" width="15.125" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.875" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="21.875" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B5" s="16"/>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B7" s="6"/>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B8" s="6"/>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B9" s="6"/>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B10" s="7"/>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="6" t="s">
+      <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B12" s="7"/>
+      <c r="C12" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="6"/>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="7"/>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B14" s="6"/>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="1"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="7"/>
       <c r="C15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="J15" s="1"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="2"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>34</v>
-      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B24" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1422,11 +1305,8 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1436,11 +1316,8 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1450,111 +1327,180 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B5:B7"/>
+  <mergeCells count="4">
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/A-开发相关文档素材/5.其他文档/日历标签的分析.xlsx
+++ b/A-开发相关文档素材/5.其他文档/日历标签的分析.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\GTD2\A-开发相关文档素材\5.其他文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IdeaProjects\GTD2\A-开发相关文档素材\5.其他文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -369,44 +369,44 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -790,7 +790,7 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -810,7 +810,7 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B7" s="7"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
@@ -922,7 +922,7 @@
   <dimension ref="B2:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -952,7 +952,7 @@
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="10" t="s">
         <v>41</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -982,28 +982,30 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="11"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="16"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1016,7 +1018,7 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1039,7 +1041,7 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="6"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1060,7 +1062,7 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="6"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
@@ -1081,7 +1083,7 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="6"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="1" t="s">
         <v>47</v>
       </c>
@@ -1102,11 +1104,11 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="7"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="11" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="2"/>
@@ -1114,7 +1116,7 @@
       <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -1123,7 +1125,7 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1144,24 +1146,24 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="7"/>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1178,7 +1180,7 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="6"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1193,7 +1195,7 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="7"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1426,59 +1428,59 @@
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8" t="s">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
+      <c r="D35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B36" s="8"/>
-      <c r="C36" s="8" t="s">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
+      <c r="D36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
